--- a/biology/Zoologie/Alinea_(genre)/Alinea_(genre).xlsx
+++ b/biology/Zoologie/Alinea_(genre)/Alinea_(genre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Alinea est un genre de sauriens de la famille des Scincidae[1].
+Alinea est un genre de sauriens de la famille des Scincidae.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre sont endémiques des Antilles[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre sont endémiques des Antilles.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (30 juillet 2012)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (30 juillet 2012) :
 Alinea berengerae (Miralles, 2006)
 Alinea lanceolata (Cope, 1862)
 Alinea luciae (Garman, 1887)
@@ -577,7 +593,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Hedges &amp; Conn, 2012 : A new skink fauna from Caribbean islands (Squamata, Mabuyidae, Mabuyinae). Zootaxa, no 3288, p. 1–244 (texte intégral).</t>
         </is>
